--- a/exports/Guarantech_natcon_registration.xlsx
+++ b/exports/Guarantech_natcon_registration.xlsx
@@ -20,15 +20,12 @@
     <t>Company Name:</t>
   </si>
   <si>
-    <t>Guarantech</t>
+    <t>guarantech</t>
   </si>
   <si>
     <t>Company Address:</t>
   </si>
   <si>
-    <t>ajhkjajasdjghagha</t>
-  </si>
-  <si>
     <t>delegates_fname</t>
   </si>
   <si>
@@ -77,40 +74,43 @@
     <t>isPWD</t>
   </si>
   <si>
-    <t>Jemuel</t>
-  </si>
-  <si>
-    <t>Bocala</t>
-  </si>
-  <si>
-    <t>Agban</t>
-  </si>
-  <si>
-    <t>1999-09-15</t>
-  </si>
-  <si>
-    <t>jemuelagban09@gmail.com</t>
+    <t>Randy</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Flores</t>
+  </si>
+  <si>
+    <t>2002-09-19</t>
+  </si>
+  <si>
+    <t>icto@psmeinc.org.ph</t>
+  </si>
+  <si>
+    <t>090909090909</t>
   </si>
   <si>
     <t>NCR</t>
   </si>
   <si>
-    <t>Makati</t>
+    <t>Marikina City</t>
   </si>
   <si>
     <t>Registered Mechanical Engineer</t>
   </si>
   <si>
-    <t>2028-09-15</t>
-  </si>
-  <si>
-    <t>Private</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>2025-07-04</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>Life/Associate</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -473,16 +473,16 @@
     <col min="3" max="3" width="18.71" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="19.995" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="16.425" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="23.423" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="23.423" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="36.42" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="24.708" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="16.425" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="6.998" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -498,81 +498,81 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2">
+        <v>221312312321312</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
       </c>
       <c r="G5">
         <v>63</v>
       </c>
-      <c r="H5">
-        <v>9509859471</v>
+      <c r="H5" t="s">
+        <v>24</v>
       </c>
       <c r="I5" t="s">
         <v>25</v>
@@ -584,7 +584,7 @@
         <v>27</v>
       </c>
       <c r="L5">
-        <v>1234132</v>
+        <v>123123</v>
       </c>
       <c r="M5" t="s">
         <v>28</v>

--- a/exports/Guarantech_natcon_registration.xlsx
+++ b/exports/Guarantech_natcon_registration.xlsx
@@ -15,99 +15,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
-  <si>
-    <t>Company Name:</t>
-  </si>
-  <si>
-    <t>guarantech</t>
-  </si>
-  <si>
-    <t>Company Address:</t>
-  </si>
-  <si>
-    <t>delegates_fname</t>
-  </si>
-  <si>
-    <t>delegates_mname</t>
-  </si>
-  <si>
-    <t>delegates_lname</t>
-  </si>
-  <si>
-    <t>delegates_suffix</t>
-  </si>
-  <si>
-    <t>delegates_dob</t>
-  </si>
-  <si>
-    <t>delegates_emailid</t>
-  </si>
-  <si>
-    <t>delegates_country</t>
-  </si>
-  <si>
-    <t>delegates_contactno</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>chapter</t>
-  </si>
-  <si>
-    <t>prcLicenseType</t>
-  </si>
-  <si>
-    <t>prcLicenseNo</t>
-  </si>
-  <si>
-    <t>prcLicenseExpiration</t>
-  </si>
-  <si>
-    <t>sector</t>
-  </si>
-  <si>
-    <t>register_type</t>
-  </si>
-  <si>
-    <t>isPWD</t>
-  </si>
-  <si>
-    <t>Randy</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Flores</t>
-  </si>
-  <si>
-    <t>2002-09-19</t>
-  </si>
-  <si>
-    <t>icto@psmeinc.org.ph</t>
-  </si>
-  <si>
-    <t>090909090909</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Middle</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Suffix</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>Email ID</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>PRC License Type</t>
+  </si>
+  <si>
+    <t>PRC License Number</t>
+  </si>
+  <si>
+    <t>PRC License Expiration Date</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Chapter</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Register Type</t>
+  </si>
+  <si>
+    <t>PWD</t>
+  </si>
+  <si>
+    <t>Jemuel</t>
+  </si>
+  <si>
+    <t>Bocala</t>
+  </si>
+  <si>
+    <t>Agban</t>
+  </si>
+  <si>
+    <t>ict@psmeinc.org.ph</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>vbvbxbxvcb</t>
+  </si>
+  <si>
+    <t>Professional Mechanical Engineer</t>
   </si>
   <si>
     <t>NCR</t>
   </si>
   <si>
-    <t>Marikina City</t>
-  </si>
-  <si>
-    <t>Registered Mechanical Engineer</t>
-  </si>
-  <si>
-    <t>2025-07-04</t>
+    <t>Pasay</t>
   </si>
   <si>
     <t>Government</t>
   </si>
   <si>
-    <t>Life/Associate</t>
+    <t>Life / Associate Member</t>
   </si>
   <si>
     <t>Yes</t>
@@ -117,7 +105,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <b val="0"/>
@@ -158,9 +148,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,149 +451,130 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:A2"/>
+      <selection activeCell="K2" sqref="K2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.995" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="19.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="16.425" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="23.423" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="23.423" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="16.425" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="36.42" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="15.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="24.708" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="22.28" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="16.425" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="38.848" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="22.28" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="32.992" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="4.57" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>221312312321312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" t="s">
+      <c r="E2" s="2">
+        <v>34957.0</v>
+      </c>
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+      <c r="J2">
+        <v>123123</v>
+      </c>
+      <c r="K2" s="2">
+        <v>45868.0</v>
+      </c>
+      <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="G5">
-        <v>63</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="M2" t="s">
         <v>24</v>
       </c>
-      <c r="I5" t="s">
+      <c r="N2" t="s">
         <v>25</v>
       </c>
-      <c r="J5" t="s">
+      <c r="O2" t="s">
         <v>26</v>
       </c>
-      <c r="K5" t="s">
+      <c r="P2" t="s">
         <v>27</v>
-      </c>
-      <c r="L5">
-        <v>123123</v>
-      </c>
-      <c r="M5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells>
-    <mergeCell ref="B2:E2"/>
-  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/exports/Guarantech_natcon_registration.xlsx
+++ b/exports/Guarantech_natcon_registration.xlsx
@@ -65,13 +65,13 @@
     <t>PWD</t>
   </si>
   <si>
-    <t>Jemuel</t>
-  </si>
-  <si>
-    <t>Bocala</t>
-  </si>
-  <si>
-    <t>Agban</t>
+    <t>randy</t>
+  </si>
+  <si>
+    <t>matia ong</t>
+  </si>
+  <si>
+    <t>flores</t>
   </si>
   <si>
     <t>ict@psmeinc.org.ph</t>
@@ -80,16 +80,16 @@
     <t>Philippines</t>
   </si>
   <si>
-    <t>vbvbxbxvcb</t>
-  </si>
-  <si>
-    <t>Professional Mechanical Engineer</t>
-  </si>
-  <si>
-    <t>NCR</t>
-  </si>
-  <si>
-    <t>Pasay</t>
+    <t>090909090909</t>
+  </si>
+  <si>
+    <t>Registered Mechanical Engineer</t>
+  </si>
+  <si>
+    <t>Luzon</t>
+  </si>
+  <si>
+    <t>Cavite</t>
   </si>
   <si>
     <t>Government</t>
@@ -98,7 +98,7 @@
     <t>Life / Associate Member</t>
   </si>
   <si>
-    <t>Yes</t>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -460,14 +460,14 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="22.28" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="16.425" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="38.848" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="36.42" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="22.28" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="8.141" bestFit="true" customWidth="true" style="0"/>
@@ -538,7 +538,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="2">
-        <v>34957.0</v>
+        <v>37621.0</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -553,10 +553,10 @@
         <v>22</v>
       </c>
       <c r="J2">
-        <v>123123</v>
+        <v>123456</v>
       </c>
       <c r="K2" s="2">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="L2" t="s">
         <v>23</v>

--- a/exports/Guarantech_natcon_registration.xlsx
+++ b/exports/Guarantech_natcon_registration.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>First Name</t>
   </si>
@@ -65,13 +65,13 @@
     <t>PWD</t>
   </si>
   <si>
-    <t>randy</t>
-  </si>
-  <si>
-    <t>matia ong</t>
-  </si>
-  <si>
-    <t>flores</t>
+    <t>Jemuel</t>
+  </si>
+  <si>
+    <t>Bocala</t>
+  </si>
+  <si>
+    <t>Agban</t>
   </si>
   <si>
     <t>ict@psmeinc.org.ph</t>
@@ -80,22 +80,76 @@
     <t>Philippines</t>
   </si>
   <si>
-    <t>090909090909</t>
+    <t>09190266544</t>
+  </si>
+  <si>
+    <t>Professional Mechanical Engineer</t>
+  </si>
+  <si>
+    <t>00123233</t>
+  </si>
+  <si>
+    <t>Luzon</t>
+  </si>
+  <si>
+    <t>Ilocos</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>Life / Associate Member</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
+    <t>Matia ong</t>
+  </si>
+  <si>
+    <t>Flores</t>
+  </si>
+  <si>
+    <t>ict+1@psmeinc.org.ph</t>
   </si>
   <si>
     <t>Registered Mechanical Engineer</t>
   </si>
   <si>
-    <t>Luzon</t>
-  </si>
-  <si>
-    <t>Cavite</t>
-  </si>
-  <si>
-    <t>Government</t>
-  </si>
-  <si>
-    <t>Life / Associate Member</t>
+    <t>09000</t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>State Of Kuwait</t>
+  </si>
+  <si>
+    <t>John Julius</t>
+  </si>
+  <si>
+    <t>Baldia</t>
+  </si>
+  <si>
+    <t>icto@psmeinc.org.ph</t>
+  </si>
+  <si>
+    <t>00000000000</t>
+  </si>
+  <si>
+    <t>00000000</t>
+  </si>
+  <si>
+    <t>Isabela-Quirino</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Regular</t>
   </si>
   <si>
     <t>No</t>
@@ -451,27 +505,27 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="K2" sqref="K2:K2"/>
+      <selection activeCell="K2" sqref="K2:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="16.425" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="22.28" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="24.708" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="16.425" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="36.42" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="38.848" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="22.28" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="32.992" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="16.425" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="18.71" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="28.136" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="4.57" bestFit="true" customWidth="true" style="0"/>
@@ -538,7 +592,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="2">
-        <v>37621.0</v>
+        <v>36418.0</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -552,26 +606,120 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="J2">
-        <v>123456</v>
+      <c r="J2" t="s">
+        <v>23</v>
       </c>
       <c r="K2" s="2">
-        <v>45869.0</v>
+        <v>45868.0</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2">
+        <v>37529.0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2">
+        <v>45868.0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2">
+        <v>34961.0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="2">
+        <v>45868.0</v>
+      </c>
+      <c r="L4" t="s">
         <v>24</v>
       </c>
-      <c r="N2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" t="s">
-        <v>27</v>
+      <c r="M4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
